--- a/results/mp/logistic/corona/confidence/84/0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="131">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,72 +43,72 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>fight</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -121,45 +121,51 @@
     <t>co</t>
   </si>
   <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
     <t>on</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>the</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>the</t>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>in</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -169,162 +175,168 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>best</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>create</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>true</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>increase</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
@@ -340,61 +352,61 @@
     <t>check</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>your</t>
+    <t>need</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>our</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>we</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>consumer</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>are</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>food</t>
+  </si>
+  <si>
+    <t>'</t>
   </si>
 </sst>
 </file>
@@ -752,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,10 +772,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -821,13 +833,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -839,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -863,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -871,13 +883,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -889,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -913,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -921,13 +933,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -939,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -963,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -971,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -989,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.8983050847457628</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1013,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1021,13 +1033,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6538461538461539</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1039,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1071,13 +1083,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6470588235294118</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1089,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1113,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1121,13 +1133,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.631578947368421</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1139,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.8586387434554974</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L9">
-        <v>328</v>
+        <v>91</v>
       </c>
       <c r="M9">
-        <v>329</v>
+        <v>91</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1160,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1171,13 +1183,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5675675675675675</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1189,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K10">
         <v>0.8461538461538461</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1213,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1221,37 +1233,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5666666666666667</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>17</v>
       </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>13</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.825</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L11">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1263,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1271,37 +1283,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5600000000000001</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>14</v>
       </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8113207547169812</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L12">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1313,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1321,13 +1333,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4761904761904762</v>
+        <v>0.5026455026455027</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1339,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1363,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1371,13 +1383,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4554263565891473</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="C14">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D14">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1389,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1413,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1421,13 +1433,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4406779661016949</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1439,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.795774647887324</v>
+        <v>0.8203125</v>
       </c>
       <c r="L15">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M15">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1463,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1471,13 +1483,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4313725490196079</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1489,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.7948717948717948</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1513,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1521,13 +1533,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4102564102564102</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1539,19 +1551,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.7878787878787878</v>
+        <v>0.8</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1563,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1571,13 +1583,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1589,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1613,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1621,13 +1633,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3214285714285715</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1639,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.7758620689655172</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1663,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1671,13 +1683,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2933333333333333</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1689,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.7727272727272727</v>
+        <v>0.78125</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1713,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1721,13 +1733,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2727272727272727</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1739,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.7682926829268293</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1763,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1771,13 +1783,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2550335570469799</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1789,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1813,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1821,13 +1833,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2194444444444444</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C23">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1839,19 +1851,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1863,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1871,13 +1883,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2111111111111111</v>
+        <v>0.175</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1889,19 +1901,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L24">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1913,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1921,7 +1933,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1688311688311688</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -1939,19 +1951,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1963,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1971,13 +1983,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1468253968253968</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1989,19 +2001,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.7441860465116279</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2013,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2021,13 +2033,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.08042895442359249</v>
+        <v>0.1045576407506702</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2039,19 +2051,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2063,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2071,13 +2083,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05333333333333334</v>
+        <v>0.04333333333333333</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2089,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K28">
         <v>0.7272727272727273</v>
@@ -2121,37 +2133,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01941747572815534</v>
+        <v>0.02171799027552674</v>
       </c>
       <c r="C29">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D29">
+        <v>89</v>
+      </c>
+      <c r="E29">
+        <v>0.25</v>
+      </c>
+      <c r="F29">
+        <v>0.75</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3018</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E29">
-        <v>0.22</v>
-      </c>
-      <c r="F29">
-        <v>0.78</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>3030</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="K29">
-        <v>0.6825396825396826</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2163,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2171,37 +2183,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01736552308343922</v>
+        <v>0.02133712660028449</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="F30">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2320</v>
+        <v>688</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2221,37 +2233,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01517306780464675</v>
+        <v>0.02024922118380062</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>0.52</v>
+        <v>0.28</v>
       </c>
       <c r="F31">
-        <v>0.48</v>
+        <v>0.72</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2077</v>
+        <v>629</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.6571428571428571</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2263,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2271,37 +2283,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01492537313432836</v>
+        <v>0.01908065915004337</v>
       </c>
       <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>0.27</v>
+      </c>
+      <c r="F32">
+        <v>0.73</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1131</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L32">
         <v>13</v>
       </c>
-      <c r="D32">
-        <v>24</v>
-      </c>
-      <c r="E32">
-        <v>0.46</v>
-      </c>
-      <c r="F32">
-        <v>0.54</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>858</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32">
-        <v>0.6558823529411765</v>
-      </c>
-      <c r="L32">
-        <v>223</v>
-      </c>
       <c r="M32">
-        <v>223</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2313,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>117</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2321,37 +2333,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01332149200710479</v>
+        <v>0.01489117983963345</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="F33">
-        <v>0.52</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1111</v>
+        <v>860</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.65</v>
+        <v>0.675</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2363,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2371,37 +2383,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01294219154443486</v>
+        <v>0.01368570080226522</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E34">
-        <v>0.12</v>
+        <v>0.45</v>
       </c>
       <c r="F34">
-        <v>0.88</v>
+        <v>0.55</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1144</v>
+        <v>2090</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L34">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2413,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2421,37 +2433,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.01141352063213345</v>
+        <v>0.01357082273112807</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E35">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="F35">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>2252</v>
+        <v>2326</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.6317991631799164</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L35">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2463,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2471,37 +2483,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008262836907338186</v>
+        <v>0.01325088339222615</v>
       </c>
       <c r="C36">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="E36">
-        <v>0.66</v>
+        <v>0.35</v>
       </c>
       <c r="F36">
-        <v>0.34</v>
+        <v>0.65</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>5041</v>
+        <v>1117</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>0.6296296296296297</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2521,37 +2533,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.007508212106992022</v>
+        <v>0.008837391987431265</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="E37">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F37">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2115</v>
+        <v>5047</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.625</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2563,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2571,49 +2583,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00736</v>
+        <v>0.008741258741258742</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E38">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="F38">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>3102</v>
+        <v>2268</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.608843537414966</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L38">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2621,49 +2633,49 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006917599186164801</v>
+        <v>0.00855784469096672</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D39">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E39">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="F39">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>4881</v>
+        <v>3128</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>0.6071428571428571</v>
+        <v>0.6258503401360545</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2671,37 +2683,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.00652090525508247</v>
+        <v>0.008500772797527048</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E40">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F40">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>2590</v>
+        <v>2566</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K40">
-        <v>0.5957446808510638</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L40">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2713,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2721,37 +2733,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006329113924050633</v>
+        <v>0.007958801498127341</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D41">
+        <v>90</v>
+      </c>
+      <c r="E41">
+        <v>0.62</v>
+      </c>
+      <c r="F41">
+        <v>0.38</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>4238</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E41">
-        <v>0.7</v>
-      </c>
-      <c r="F41">
-        <v>0.3</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>4239</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="K41">
-        <v>0.5925925925925926</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2763,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2771,57 +2783,81 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005443886097152429</v>
+        <v>0.007074490220557637</v>
       </c>
       <c r="C42">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>59</v>
+      </c>
+      <c r="E42">
+        <v>0.71</v>
+      </c>
+      <c r="F42">
+        <v>0.29</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2386</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="L42">
+        <v>14</v>
+      </c>
+      <c r="M42">
+        <v>14</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.006083294337856809</v>
+      </c>
+      <c r="C43">
         <v>13</v>
       </c>
-      <c r="D42">
-        <v>70</v>
-      </c>
-      <c r="E42">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F42">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>2375</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K42">
-        <v>0.5846153846153846</v>
-      </c>
-      <c r="L42">
-        <v>38</v>
-      </c>
-      <c r="M42">
-        <v>38</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="D43">
+        <v>34</v>
+      </c>
+      <c r="E43">
+        <v>0.62</v>
+      </c>
+      <c r="F43">
+        <v>0.38</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2124</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K43">
-        <v>0.5714285714285714</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L43">
         <v>16</v>
@@ -2839,21 +2875,45 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.005494505494505495</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>109</v>
+      </c>
+      <c r="E44">
+        <v>0.75</v>
+      </c>
+      <c r="F44">
+        <v>0.25</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>4887</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K44">
-        <v>0.5652173913043478</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2865,21 +2925,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.5476190476190477</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2891,21 +2951,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2917,21 +2977,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.5357142857142857</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2943,21 +3003,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.5168539325842697</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L48">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2969,21 +3029,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.5</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2995,21 +3055,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.4814814814814815</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3021,21 +3081,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.4705882352941176</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3047,21 +3107,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.4222222222222222</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3073,21 +3133,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.3717948717948718</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3099,21 +3159,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.3561643835616438</v>
+        <v>0.4</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3125,21 +3185,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.3389830508474576</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3151,47 +3211,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K56">
-        <v>0.328125</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L56">
+        <v>13</v>
+      </c>
+      <c r="M56">
+        <v>13</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <v>21</v>
-      </c>
-      <c r="M56">
-        <v>21</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>43</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K57">
-        <v>0.3114754098360656</v>
+        <v>0.34375</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3208,16 +3268,16 @@
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>0.2807017543859649</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3229,21 +3289,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K59">
-        <v>0.2083333333333333</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3255,21 +3315,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K60">
-        <v>0.1774193548387097</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3281,73 +3341,73 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K61">
-        <v>0.1495327102803738</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N61">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K62">
-        <v>0.09859154929577464</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N62">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K63">
-        <v>0.07027027027027027</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3359,385 +3419,385 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>172</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K64">
-        <v>0.05844155844155844</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="L64">
         <v>18</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>290</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K65">
-        <v>0.05321100917431193</v>
+        <v>0.05311355311355311</v>
       </c>
       <c r="L65">
         <v>29</v>
       </c>
       <c r="M65">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N65">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K66">
-        <v>0.05276381909547739</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="L66">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="N66">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1131</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K67">
-        <v>0.04830917874396135</v>
+        <v>0.04861111111111111</v>
       </c>
       <c r="L67">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M67">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N67">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="O67">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>394</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K68">
-        <v>0.04556354916067146</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M68">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N68">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O68">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>398</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K69">
-        <v>0.03316749585406302</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L69">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N69">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>583</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K70">
-        <v>0.03045685279187817</v>
+        <v>0.03499079189686925</v>
       </c>
       <c r="L70">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M70">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N70">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O70">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>955</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K71">
-        <v>0.0280811232449298</v>
+        <v>0.0335707019328586</v>
       </c>
       <c r="L71">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M71">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N71">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="O71">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>623</v>
+        <v>950</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="K72">
-        <v>0.0267260579064588</v>
+        <v>0.03206337231233497</v>
       </c>
       <c r="L72">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="M72">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="N72">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="O72">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>874</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="K73">
-        <v>0.02484939759036145</v>
+        <v>0.03132530120481928</v>
       </c>
       <c r="L73">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M73">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="N73">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="O73">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>2590</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="K74">
-        <v>0.02391441157960982</v>
+        <v>0.03110419906687403</v>
       </c>
       <c r="L74">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="M74">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="N74">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="O74">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>3102</v>
+        <v>623</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="K75">
-        <v>0.0234375</v>
+        <v>0.02990033222591362</v>
       </c>
       <c r="L75">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M75">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="N75">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="O75">
-        <v>0.1899999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>2375</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K76">
-        <v>0.02205419029615627</v>
+        <v>0.02598652550529355</v>
       </c>
       <c r="L76">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M76">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N76">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="O76">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>1552</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K77">
-        <v>0.02190923317683881</v>
+        <v>0.02503912363067293</v>
       </c>
       <c r="L77">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M77">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N77">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="O77">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K78">
-        <v>0.02125279642058166</v>
+        <v>0.02330743618201998</v>
       </c>
       <c r="L78">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M78">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3749,371 +3809,397 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K79">
-        <v>0.02005012531328321</v>
+        <v>0.02092925910422771</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M79">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N79">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="O79">
-        <v>0.16</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>782</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K80">
-        <v>0.0196652719665272</v>
+        <v>0.01957070707070707</v>
       </c>
       <c r="L80">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M80">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N80">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="O80">
-        <v>0.07999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>2343</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>0.01828571428571429</v>
+        <v>0.01729818780889621</v>
       </c>
       <c r="L81">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M81">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="N81">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="O81">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>859</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="K82">
-        <v>0.01815642458100559</v>
+        <v>0.01650231434896357</v>
       </c>
       <c r="L82">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N82">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O82">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>703</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="K83">
-        <v>0.01632406287787183</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="L83">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="M83">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="N83">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>4881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="K84">
-        <v>0.01610611084793936</v>
+        <v>0.01450777202072539</v>
       </c>
       <c r="L84">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M84">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="N84">
-        <v>0.52</v>
+        <v>0.82</v>
       </c>
       <c r="O84">
-        <v>0.48</v>
+        <v>0.18</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>2077</v>
+        <v>951</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>0.01600624634003514</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="L85">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="M85">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="N85">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="O85">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>5041</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>0.01443695861405197</v>
+        <v>0.0142578125</v>
       </c>
       <c r="L86">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="N86">
-        <v>0.9399999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="O86">
-        <v>0.06000000000000005</v>
+        <v>0.38</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>1024</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="K87">
-        <v>0.01441525226691467</v>
+        <v>0.01309164149043303</v>
       </c>
       <c r="L87">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M87">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="N87">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="O87">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>4239</v>
+        <v>980</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>0.01357862461673237</v>
+        <v>0.01304145319049837</v>
       </c>
       <c r="L88">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M88">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="N88">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="O88">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>2252</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K89">
-        <v>0.01260504201680672</v>
+        <v>0.01135288552507096</v>
       </c>
       <c r="L89">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M89">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N89">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="O89">
-        <v>0.37</v>
+        <v>0.55</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>2115</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>0.01244444444444444</v>
+        <v>0.009790209790209791</v>
       </c>
       <c r="L90">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M90">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N90">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="O90">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>1111</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>0.007698887938408896</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="L91">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M91">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N91">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
       <c r="O91">
-        <v>0.6899999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>2320</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K92">
+        <v>0.008947592671495527</v>
+      </c>
+      <c r="L92">
+        <v>21</v>
+      </c>
+      <c r="M92">
+        <v>53</v>
+      </c>
+      <c r="N92">
+        <v>0.4</v>
+      </c>
+      <c r="O92">
+        <v>0.6</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K92">
-        <v>0.005579258286839514</v>
-      </c>
-      <c r="L92">
-        <v>17</v>
-      </c>
-      <c r="M92">
-        <v>77</v>
-      </c>
-      <c r="N92">
-        <v>0.22</v>
-      </c>
-      <c r="O92">
-        <v>0.78</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>3030</v>
+      <c r="K93">
+        <v>0.007236842105263158</v>
+      </c>
+      <c r="L93">
+        <v>22</v>
+      </c>
+      <c r="M93">
+        <v>89</v>
+      </c>
+      <c r="N93">
+        <v>0.25</v>
+      </c>
+      <c r="O93">
+        <v>0.75</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>3018</v>
       </c>
     </row>
   </sheetData>
